--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.911123333333333</v>
+        <v>0.490013</v>
       </c>
       <c r="H2">
-        <v>5.73337</v>
+        <v>1.470039</v>
       </c>
       <c r="I2">
-        <v>0.1918165943533883</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="J2">
-        <v>0.1926922686284227</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N2">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O2">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P2">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q2">
-        <v>0.8150017307055556</v>
+        <v>0.07667592753866666</v>
       </c>
       <c r="R2">
-        <v>7.33501557635</v>
+        <v>0.6900833478479999</v>
       </c>
       <c r="S2">
-        <v>0.001332614137424065</v>
+        <v>0.0001498040453633333</v>
       </c>
       <c r="T2">
-        <v>0.001360840652238608</v>
+        <v>0.0001504783106413544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.911123333333333</v>
+        <v>0.490013</v>
       </c>
       <c r="H3">
-        <v>5.73337</v>
+        <v>1.470039</v>
       </c>
       <c r="I3">
-        <v>0.1918165943533883</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="J3">
-        <v>0.1926922686284227</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>170.848841</v>
       </c>
       <c r="O3">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P3">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q3">
-        <v>108.8377355026855</v>
+        <v>27.90605104164433</v>
       </c>
       <c r="R3">
-        <v>979.5396195241699</v>
+        <v>251.154459374799</v>
       </c>
       <c r="S3">
-        <v>0.1779612233345055</v>
+        <v>0.05452088380731802</v>
       </c>
       <c r="T3">
-        <v>0.1817306753955314</v>
+        <v>0.05476628131169874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.911123333333333</v>
+        <v>0.490013</v>
       </c>
       <c r="H4">
-        <v>5.73337</v>
+        <v>1.470039</v>
       </c>
       <c r="I4">
-        <v>0.1918165943533883</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="J4">
-        <v>0.1926922686284227</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N4">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O4">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P4">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q4">
-        <v>0.6722299880066668</v>
+        <v>0.054812364167</v>
       </c>
       <c r="R4">
-        <v>6.050069892060001</v>
+        <v>0.493311277503</v>
       </c>
       <c r="S4">
-        <v>0.001099167218752493</v>
+        <v>0.0001070885498451134</v>
       </c>
       <c r="T4">
-        <v>0.001122449021723418</v>
+        <v>0.0001075705534562914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.911123333333333</v>
+        <v>0.490013</v>
       </c>
       <c r="H5">
-        <v>5.73337</v>
+        <v>1.470039</v>
       </c>
       <c r="I5">
-        <v>0.1918165943533883</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="J5">
-        <v>0.1926922686284227</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N5">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O5">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P5">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q5">
-        <v>5.726496644931666</v>
+        <v>0.3836934093509999</v>
       </c>
       <c r="R5">
-        <v>34.35897986959</v>
+        <v>2.302160456105999</v>
       </c>
       <c r="S5">
-        <v>0.00936342844369299</v>
+        <v>0.0007496332518578715</v>
       </c>
       <c r="T5">
-        <v>0.00637450542392072</v>
+        <v>0.0005020048916416767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.911123333333333</v>
+        <v>0.490013</v>
       </c>
       <c r="H6">
-        <v>5.73337</v>
+        <v>1.470039</v>
       </c>
       <c r="I6">
-        <v>0.1918165943533883</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="J6">
-        <v>0.1926922686284227</v>
+        <v>0.05576615466602004</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N6">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O6">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P6">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q6">
-        <v>1.259955835583333</v>
+        <v>0.1221996052776667</v>
       </c>
       <c r="R6">
-        <v>11.33960252025</v>
+        <v>1.099796447499</v>
       </c>
       <c r="S6">
-        <v>0.002060161219013293</v>
+        <v>0.0002387450116356991</v>
       </c>
       <c r="T6">
-        <v>0.002103798135008519</v>
+        <v>0.0002398195985819746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>0.036506</v>
       </c>
       <c r="I7">
-        <v>0.001221350897197424</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="J7">
-        <v>0.001226926564751481</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N7">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O7">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P7">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q7">
-        <v>0.005189348181111111</v>
+        <v>0.001904120510222222</v>
       </c>
       <c r="R7">
-        <v>0.04670413363</v>
+        <v>0.017137084592</v>
       </c>
       <c r="S7">
-        <v>8.485133821958624E-06</v>
+        <v>3.720137003190966E-06</v>
       </c>
       <c r="T7">
-        <v>8.664860082398765E-06</v>
+        <v>3.736881272043315E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.036506</v>
       </c>
       <c r="I8">
-        <v>0.001221350897197424</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="J8">
-        <v>0.001226926564751481</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>170.848841</v>
       </c>
       <c r="O8">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P8">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q8">
         <v>0.6930008655051111</v>
@@ -948,10 +948,10 @@
         <v>6.237007789545999</v>
       </c>
       <c r="S8">
-        <v>0.001133129803073839</v>
+        <v>0.001353936449488722</v>
       </c>
       <c r="T8">
-        <v>0.001157130978113966</v>
+        <v>0.001360030492772555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>0.036506</v>
       </c>
       <c r="I9">
-        <v>0.001221350897197424</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="J9">
-        <v>0.001226926564751481</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N9">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O9">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P9">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q9">
-        <v>0.004280279825333333</v>
+        <v>0.001361174884666667</v>
       </c>
       <c r="R9">
-        <v>0.038522518428</v>
+        <v>0.012250573962</v>
       </c>
       <c r="S9">
-        <v>6.998710790997006E-06</v>
+        <v>2.659367949180744E-06</v>
       </c>
       <c r="T9">
-        <v>7.146952662576305E-06</v>
+        <v>2.671337715853371E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.036506</v>
       </c>
       <c r="I10">
-        <v>0.001221350897197424</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="J10">
-        <v>0.001226926564751481</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N10">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O10">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P10">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q10">
-        <v>0.03646223539033333</v>
+        <v>0.009528394553999999</v>
       </c>
       <c r="R10">
-        <v>0.218773412342</v>
+        <v>0.05717036732399999</v>
       </c>
       <c r="S10">
-        <v>5.961961617084826E-05</v>
+        <v>1.861590848428066E-05</v>
       </c>
       <c r="T10">
-        <v>4.058829187818853E-05</v>
+        <v>1.246646556606393E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,40 +1104,40 @@
         <v>0.036506</v>
       </c>
       <c r="I11">
-        <v>0.001221350897197424</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="J11">
-        <v>0.001226926564751481</v>
+        <v>0.001384860702496823</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N11">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O11">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P11">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q11">
-        <v>0.008022497716666665</v>
+        <v>0.003034626149555555</v>
       </c>
       <c r="R11">
-        <v>0.07220247945</v>
+        <v>0.027311635346</v>
       </c>
       <c r="S11">
-        <v>1.311763333978084E-05</v>
+        <v>5.92883957144867E-06</v>
       </c>
       <c r="T11">
-        <v>1.339548201435125E-05</v>
+        <v>5.955525170307431E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.045820666666667</v>
+        <v>3.926259333333333</v>
       </c>
       <c r="H12">
-        <v>15.137462</v>
+        <v>11.778778</v>
       </c>
       <c r="I12">
-        <v>0.5064414834545529</v>
+        <v>0.446829747867039</v>
       </c>
       <c r="J12">
-        <v>0.5087534720516104</v>
+        <v>0.4468297478670391</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N12">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O12">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P12">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q12">
-        <v>2.151798633001111</v>
+        <v>0.614370590455111</v>
       </c>
       <c r="R12">
-        <v>19.36618769701</v>
+        <v>5.529335314096</v>
       </c>
       <c r="S12">
-        <v>0.00351841863789003</v>
+        <v>0.001200314137132846</v>
       </c>
       <c r="T12">
-        <v>0.003592943358150118</v>
+        <v>0.001205716729188512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.045820666666667</v>
+        <v>3.926259333333333</v>
       </c>
       <c r="H13">
-        <v>15.137462</v>
+        <v>11.778778</v>
       </c>
       <c r="I13">
-        <v>0.5064414834545529</v>
+        <v>0.446829747867039</v>
       </c>
       <c r="J13">
-        <v>0.5087534720516104</v>
+        <v>0.4468297478670391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>170.848841</v>
       </c>
       <c r="O13">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P13">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q13">
-        <v>287.3575375979491</v>
+        <v>223.5989521884775</v>
       </c>
       <c r="R13">
-        <v>2586.217838381542</v>
+        <v>2012.390569696298</v>
       </c>
       <c r="S13">
-        <v>0.4698600047964094</v>
+        <v>0.4368519384384997</v>
       </c>
       <c r="T13">
-        <v>0.4798122557996767</v>
+        <v>0.4388182010518417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.045820666666667</v>
+        <v>3.926259333333333</v>
       </c>
       <c r="H14">
-        <v>15.137462</v>
+        <v>11.778778</v>
       </c>
       <c r="I14">
-        <v>0.5064414834545529</v>
+        <v>0.446829747867039</v>
       </c>
       <c r="J14">
-        <v>0.5087534720516104</v>
+        <v>0.4468297478670391</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N14">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O14">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P14">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q14">
-        <v>1.774847236217334</v>
+        <v>0.4391874427673333</v>
       </c>
       <c r="R14">
-        <v>15.973625125956</v>
+        <v>3.952686984906</v>
       </c>
       <c r="S14">
-        <v>0.002902063185440945</v>
+        <v>0.00085805359923616</v>
       </c>
       <c r="T14">
-        <v>0.002963532689025028</v>
+        <v>0.0008619156828484069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.045820666666667</v>
+        <v>3.926259333333333</v>
       </c>
       <c r="H15">
-        <v>15.137462</v>
+        <v>11.778778</v>
       </c>
       <c r="I15">
-        <v>0.5064414834545529</v>
+        <v>0.446829747867039</v>
       </c>
       <c r="J15">
-        <v>0.5087534720516104</v>
+        <v>0.4468297478670391</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N15">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O15">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P15">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q15">
-        <v>15.11931470597233</v>
+        <v>3.074367067001999</v>
       </c>
       <c r="R15">
-        <v>90.715888235834</v>
+        <v>18.446202402012</v>
       </c>
       <c r="S15">
-        <v>0.02472168066183096</v>
+        <v>0.006006482586551754</v>
       </c>
       <c r="T15">
-        <v>0.01683021218295589</v>
+        <v>0.004022345103470973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.045820666666667</v>
+        <v>3.926259333333333</v>
       </c>
       <c r="H16">
-        <v>15.137462</v>
+        <v>11.778778</v>
       </c>
       <c r="I16">
-        <v>0.5064414834545529</v>
+        <v>0.446829747867039</v>
       </c>
       <c r="J16">
-        <v>0.5087534720516104</v>
+        <v>0.4468297478670391</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N16">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O16">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P16">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q16">
-        <v>3.326583420016667</v>
+        <v>0.9791318612997776</v>
       </c>
       <c r="R16">
-        <v>29.93925078015</v>
+        <v>8.812186751697999</v>
       </c>
       <c r="S16">
-        <v>0.005439316172981579</v>
+        <v>0.001912959105618502</v>
       </c>
       <c r="T16">
-        <v>0.005554528021802592</v>
+        <v>0.00192156929968946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.135832</v>
+        <v>4.358483666666667</v>
       </c>
       <c r="H17">
-        <v>0.271664</v>
+        <v>13.075451</v>
       </c>
       <c r="I17">
-        <v>0.01363325494999072</v>
+        <v>0.496019236764444</v>
       </c>
       <c r="J17">
-        <v>0.009130328666154779</v>
+        <v>0.4960192367644441</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N17">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O17">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P17">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q17">
-        <v>0.05792578278666666</v>
+        <v>0.6820039015368889</v>
       </c>
       <c r="R17">
-        <v>0.3475546967199999</v>
+        <v>6.138035113832</v>
       </c>
       <c r="S17">
-        <v>9.471478912816664E-05</v>
+        <v>0.001332451353161407</v>
       </c>
       <c r="T17">
-        <v>6.448064837080967E-05</v>
+        <v>0.001338448692418234</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.135832</v>
+        <v>4.358483666666667</v>
       </c>
       <c r="H18">
-        <v>0.271664</v>
+        <v>13.075451</v>
       </c>
       <c r="I18">
-        <v>0.01363325494999072</v>
+        <v>0.496019236764444</v>
       </c>
       <c r="J18">
-        <v>0.009130328666154779</v>
+        <v>0.4960192367644441</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>170.848841</v>
       </c>
       <c r="O18">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P18">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q18">
-        <v>7.735579923570665</v>
+        <v>248.2139609891435</v>
       </c>
       <c r="R18">
-        <v>46.41347954142399</v>
+        <v>2233.925648902291</v>
       </c>
       <c r="S18">
-        <v>0.01264849236381354</v>
+        <v>0.4849430149127202</v>
       </c>
       <c r="T18">
-        <v>0.0086109360115694</v>
+        <v>0.487125734584819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.135832</v>
+        <v>4.358483666666667</v>
       </c>
       <c r="H19">
-        <v>0.271664</v>
+        <v>13.075451</v>
       </c>
       <c r="I19">
-        <v>0.01363325494999072</v>
+        <v>0.496019236764444</v>
       </c>
       <c r="J19">
-        <v>0.009130328666154779</v>
+        <v>0.4960192367644441</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N19">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O19">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P19">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q19">
-        <v>0.047778362672</v>
+        <v>0.4875356244696668</v>
       </c>
       <c r="R19">
-        <v>0.286670176032</v>
+        <v>4.387820620227001</v>
       </c>
       <c r="S19">
-        <v>7.812268264088412E-05</v>
+        <v>0.0009525128831009508</v>
       </c>
       <c r="T19">
-        <v>5.318494899814083E-05</v>
+        <v>0.0009568001262283648</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.135832</v>
+        <v>4.358483666666667</v>
       </c>
       <c r="H20">
-        <v>0.271664</v>
+        <v>13.075451</v>
       </c>
       <c r="I20">
-        <v>0.01363325494999072</v>
+        <v>0.496019236764444</v>
       </c>
       <c r="J20">
-        <v>0.009130328666154779</v>
+        <v>0.4960192367644441</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N20">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O20">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P20">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q20">
-        <v>0.407007480212</v>
+        <v>3.412810390059</v>
       </c>
       <c r="R20">
-        <v>1.628029920848</v>
+        <v>20.476862340354</v>
       </c>
       <c r="S20">
-        <v>0.0006655003317579571</v>
+        <v>0.006667709395899196</v>
       </c>
       <c r="T20">
-        <v>0.0003020428895194272</v>
+        <v>0.004465147089581335</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.135832</v>
+        <v>4.358483666666667</v>
       </c>
       <c r="H21">
-        <v>0.271664</v>
+        <v>13.075451</v>
       </c>
       <c r="I21">
-        <v>0.01363325494999072</v>
+        <v>0.496019236764444</v>
       </c>
       <c r="J21">
-        <v>0.009130328666154779</v>
+        <v>0.4960192367644441</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N21">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O21">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P21">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q21">
-        <v>0.08955064179999998</v>
+        <v>1.086920109621222</v>
       </c>
       <c r="R21">
-        <v>0.5373038507999999</v>
+        <v>9.782280986590999</v>
       </c>
       <c r="S21">
-        <v>0.0001464247826501762</v>
+        <v>0.002123548219562212</v>
       </c>
       <c r="T21">
-        <v>9.968416769700094E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.85834</v>
-      </c>
-      <c r="H22">
-        <v>8.57502</v>
-      </c>
-      <c r="I22">
-        <v>0.2868873163448707</v>
-      </c>
-      <c r="J22">
-        <v>0.2881970040890606</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.4264516666666667</v>
-      </c>
-      <c r="N22">
-        <v>1.279355</v>
-      </c>
-      <c r="O22">
-        <v>0.00694733498901017</v>
-      </c>
-      <c r="P22">
-        <v>0.007062248329551709</v>
-      </c>
-      <c r="Q22">
-        <v>1.2189438569</v>
-      </c>
-      <c r="R22">
-        <v>10.9704947121</v>
-      </c>
-      <c r="S22">
-        <v>0.00199310229074595</v>
-      </c>
-      <c r="T22">
-        <v>0.002035318810709775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.85834</v>
-      </c>
-      <c r="H23">
-        <v>8.57502</v>
-      </c>
-      <c r="I23">
-        <v>0.2868873163448707</v>
-      </c>
-      <c r="J23">
-        <v>0.2881970040890606</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>56.94961366666666</v>
-      </c>
-      <c r="N23">
-        <v>170.848841</v>
-      </c>
-      <c r="O23">
-        <v>0.9277676101716374</v>
-      </c>
-      <c r="P23">
-        <v>0.9431134766801204</v>
-      </c>
-      <c r="Q23">
-        <v>162.78135872798</v>
-      </c>
-      <c r="R23">
-        <v>1465.03222855182</v>
-      </c>
-      <c r="S23">
-        <v>0.2661647598738353</v>
-      </c>
-      <c r="T23">
-        <v>0.2718024784952288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.85834</v>
-      </c>
-      <c r="H24">
-        <v>8.57502</v>
-      </c>
-      <c r="I24">
-        <v>0.2868873163448707</v>
-      </c>
-      <c r="J24">
-        <v>0.2881970040890606</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.3517460000000001</v>
-      </c>
-      <c r="N24">
-        <v>1.055238</v>
-      </c>
-      <c r="O24">
-        <v>0.005730303066102149</v>
-      </c>
-      <c r="P24">
-        <v>0.005825085924375554</v>
-      </c>
-      <c r="Q24">
-        <v>1.00540966164</v>
-      </c>
-      <c r="R24">
-        <v>9.048686954760001</v>
-      </c>
-      <c r="S24">
-        <v>0.00164395126847683</v>
-      </c>
-      <c r="T24">
-        <v>0.001678772311966391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.85834</v>
-      </c>
-      <c r="H25">
-        <v>8.57502</v>
-      </c>
-      <c r="I25">
-        <v>0.2868873163448707</v>
-      </c>
-      <c r="J25">
-        <v>0.2881970040890606</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.9964035</v>
-      </c>
-      <c r="N25">
-        <v>5.992807</v>
-      </c>
-      <c r="O25">
-        <v>0.04881448591690938</v>
-      </c>
-      <c r="P25">
-        <v>0.03308127237950044</v>
-      </c>
-      <c r="Q25">
-        <v>8.56473998019</v>
-      </c>
-      <c r="R25">
-        <v>51.38843988114</v>
-      </c>
-      <c r="S25">
-        <v>0.01400425686345662</v>
-      </c>
-      <c r="T25">
-        <v>0.009533923591226217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.85834</v>
-      </c>
-      <c r="H26">
-        <v>8.57502</v>
-      </c>
-      <c r="I26">
-        <v>0.2868873163448707</v>
-      </c>
-      <c r="J26">
-        <v>0.2881970040890606</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.6592749999999999</v>
-      </c>
-      <c r="N26">
-        <v>1.977825</v>
-      </c>
-      <c r="O26">
-        <v>0.01074026585634092</v>
-      </c>
-      <c r="P26">
-        <v>0.01091791668645185</v>
-      </c>
-      <c r="Q26">
-        <v>1.8844321035</v>
-      </c>
-      <c r="R26">
-        <v>16.9598889315</v>
-      </c>
-      <c r="S26">
-        <v>0.003081246048356092</v>
-      </c>
-      <c r="T26">
-        <v>0.003146510879929388</v>
+        <v>0.002133106271397072</v>
       </c>
     </row>
   </sheetData>
